--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374662.9627901976</v>
+        <v>437163.7234099533</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10281900.13733446</v>
+        <v>10310946.26091463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10614374.42182441</v>
+        <v>10706538.53052416</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8179531.025012209</v>
+        <v>8130676.716615857</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.86547882798917</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="C2" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V3" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W3" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W4" t="n">
-        <v>39.58387696184059</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V5" t="n">
-        <v>40.59529591904239</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>46.08911889082925</v>
+        <v>12.57565326968602</v>
       </c>
     </row>
     <row r="6">
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E6" t="n">
-        <v>40.59529591904239</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>17.26153007479436</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>22.56635248423082</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>44.46519227902342</v>
+        <v>15.03009239479706</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R8" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="S8" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="G9" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>50.48273419507654</v>
+        <v>23.42587357311022</v>
       </c>
       <c r="X9" t="n">
-        <v>44.46519227902342</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.386866521745233</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="G10" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>23.42587357311021</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>56.16180278495379</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>240.894001602621</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>21.3874325654157</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>129.7722100028915</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>23.18628533667185</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>68.83823843793637</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518638</v>
+        <v>135.3343964518633</v>
       </c>
       <c r="H15" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>72.25406618635867</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.993434734319121</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>257.0378573600271</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>43.70566126969549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.1311869300852</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>17.42775815369515</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>328.1464113276127</v>
       </c>
       <c r="G20" t="n">
-        <v>54.61185986350983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.68328075610331</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2271541212006</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>156.7006760920712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>295.7678311131574</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>162.1462409286438</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>79.41653965146556</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>249.5744425414866</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>38.6940255298488</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>36.73830090460939</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>103.3387326418228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.7486959972119</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>125.2942148585654</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>19.57349800984685</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.547702772954</v>
@@ -2812,7 +2812,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.045250128462</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>50.79080599388736</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>252.6129242368189</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>144.0537076524385</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3082,13 +3082,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>158.8157302813655</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>376.7195888492774</v>
       </c>
     </row>
     <row r="33">
@@ -3161,7 +3161,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T33" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0665623188213</v>
       </c>
       <c r="U33" t="n">
         <v>225.8092030868072</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>13.23288015919139</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>110.4637346787652</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>269.4944145883138</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>363.3411596266361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>153.9195064424748</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>209.0479027453594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>306.7021075930145</v>
+        <v>71.39346770308087</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.22295923705015</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>125.4048918454969</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>170.9812334109286</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>261.0084453260461</v>
+        <v>11.44669707826922</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.547702772954</v>
@@ -3793,19 +3793,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H42" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
         <v>20.22295923705016</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>96.08028899799943</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>76.83081349792759</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>199.9005547064357</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.7403598346989</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,7 +4073,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H45" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
         <v>20.22295923705016</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>22.68456176091029</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>55.94170751725333</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.15042425981653</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95943146291799</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T2" t="n">
-        <v>118.3517937444931</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U2" t="n">
-        <v>78.36807964162378</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V2" t="n">
-        <v>78.36807964162378</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W2" t="n">
-        <v>78.36807964162378</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X2" t="n">
-        <v>78.36807964162378</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y2" t="n">
-        <v>78.36807964162378</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="C3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M3" t="n">
-        <v>42.35474834916943</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N3" t="n">
-        <v>81.54278654139161</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S3" t="n">
-        <v>123.1178524655551</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T3" t="n">
-        <v>83.13413836268582</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U3" t="n">
-        <v>83.13413836268582</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V3" t="n">
-        <v>43.15042425981653</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W3" t="n">
-        <v>3.166710156947247</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R4" t="n">
-        <v>93.21247408113457</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S4" t="n">
-        <v>53.22875997826529</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T4" t="n">
-        <v>53.22875997826529</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U4" t="n">
-        <v>53.22875997826529</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V4" t="n">
-        <v>53.22875997826529</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W4" t="n">
-        <v>13.245045875396</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X4" t="n">
-        <v>13.245045875396</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C5" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D5" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E5" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F5" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G5" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H5" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I5" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J5" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K5" t="n">
-        <v>49.3153572131873</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L5" t="n">
-        <v>94.94358491510826</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M5" t="n">
-        <v>140.5718126170292</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N5" t="n">
-        <v>184.356475563317</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O5" t="n">
-        <v>184.356475563317</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P5" t="n">
-        <v>184.356475563317</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q5" t="n">
-        <v>184.356475563317</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R5" t="n">
-        <v>184.356475563317</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S5" t="n">
-        <v>184.356475563317</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T5" t="n">
-        <v>137.8018100170248</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="U5" t="n">
-        <v>91.24714447073265</v>
+        <v>40.631385380739</v>
       </c>
       <c r="V5" t="n">
-        <v>50.24179505755851</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="W5" t="n">
-        <v>50.24179505755851</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="X5" t="n">
-        <v>50.24179505755851</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.8018100170248</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C6" t="n">
-        <v>137.8018100170248</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D6" t="n">
-        <v>91.24714447073265</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E6" t="n">
-        <v>50.24179505755851</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F6" t="n">
-        <v>3.68712951126634</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G6" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H6" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I6" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J6" t="n">
-        <v>7.577947151965095</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K6" t="n">
-        <v>47.47179245755411</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L6" t="n">
-        <v>93.10002015947506</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M6" t="n">
-        <v>138.728247861396</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N6" t="n">
-        <v>184.356475563317</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O6" t="n">
-        <v>184.356475563317</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P6" t="n">
-        <v>184.356475563317</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.356475563317</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
-        <v>137.8018100170248</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S6" t="n">
-        <v>137.8018100170248</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T6" t="n">
-        <v>137.8018100170248</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U6" t="n">
-        <v>137.8018100170248</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V6" t="n">
-        <v>137.8018100170248</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W6" t="n">
-        <v>137.8018100170248</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X6" t="n">
-        <v>137.8018100170248</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y6" t="n">
-        <v>137.8018100170248</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.12301847570509</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="C7" t="n">
-        <v>3.68712951126634</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="D7" t="n">
-        <v>3.68712951126634</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="E7" t="n">
-        <v>3.68712951126634</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="F7" t="n">
-        <v>3.68712951126634</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G7" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H7" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I7" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J7" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K7" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L7" t="n">
-        <v>37.10940618873596</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M7" t="n">
-        <v>82.73763389065692</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N7" t="n">
-        <v>128.3658615925779</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O7" t="n">
-        <v>158.5122522155765</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P7" t="n">
-        <v>160.7870151145816</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q7" t="n">
-        <v>160.7870151145816</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R7" t="n">
-        <v>160.7870151145816</v>
+        <v>76.60208276374469</v>
       </c>
       <c r="S7" t="n">
-        <v>160.7870151145816</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="T7" t="n">
-        <v>160.7870151145816</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="U7" t="n">
-        <v>114.2323495682894</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="V7" t="n">
-        <v>67.67768402199727</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="W7" t="n">
-        <v>21.12301847570509</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="X7" t="n">
-        <v>21.12301847570509</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.12301847570509</v>
+        <v>50.72300074896607</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.94561517409093</v>
+        <v>17.30960211599141</v>
       </c>
       <c r="C8" t="n">
-        <v>99.94561517409093</v>
+        <v>17.30960211599141</v>
       </c>
       <c r="D8" t="n">
-        <v>99.94561517409093</v>
+        <v>17.30960211599141</v>
       </c>
       <c r="E8" t="n">
-        <v>99.94561517409093</v>
+        <v>17.30960211599141</v>
       </c>
       <c r="F8" t="n">
-        <v>48.95295437098331</v>
+        <v>17.30960211599141</v>
       </c>
       <c r="G8" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H8" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I8" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J8" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K8" t="n">
-        <v>51.99721622092883</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="L8" t="n">
-        <v>101.9751230740546</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="M8" t="n">
-        <v>101.9751230740546</v>
+        <v>54.78803310695623</v>
       </c>
       <c r="N8" t="n">
-        <v>151.9530299271804</v>
+        <v>81.11820435738666</v>
       </c>
       <c r="O8" t="n">
-        <v>201.9309367803062</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="P8" t="n">
-        <v>201.9309367803062</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.9309367803062</v>
+        <v>97.90394325596823</v>
       </c>
       <c r="R8" t="n">
-        <v>150.9382759771985</v>
+        <v>71.03916287597596</v>
       </c>
       <c r="S8" t="n">
-        <v>99.94561517409093</v>
+        <v>44.17438249598369</v>
       </c>
       <c r="T8" t="n">
-        <v>99.94561517409093</v>
+        <v>17.30960211599141</v>
       </c>
       <c r="U8" t="n">
-        <v>99.94561517409093</v>
+        <v>17.30960211599141</v>
       </c>
       <c r="V8" t="n">
-        <v>99.94561517409093</v>
+        <v>17.30960211599141</v>
       </c>
       <c r="W8" t="n">
-        <v>99.94561517409093</v>
+        <v>17.30960211599141</v>
       </c>
       <c r="X8" t="n">
-        <v>99.94561517409093</v>
+        <v>17.30960211599141</v>
       </c>
       <c r="Y8" t="n">
-        <v>99.94561517409093</v>
+        <v>17.30960211599141</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.03127953871374</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="C9" t="n">
-        <v>55.03127953871374</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="D9" t="n">
-        <v>55.03127953871374</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="E9" t="n">
-        <v>55.03127953871374</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="F9" t="n">
-        <v>55.03127953871374</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="G9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K9" t="n">
-        <v>4.038618735606123</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="L9" t="n">
-        <v>4.038618735606123</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="M9" t="n">
-        <v>54.01652558873189</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="N9" t="n">
-        <v>54.01652558873189</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="O9" t="n">
-        <v>103.9944324418577</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="P9" t="n">
-        <v>151.9530299271804</v>
+        <v>80.05435905433897</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.9309367803062</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R9" t="n">
-        <v>201.9309367803062</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="S9" t="n">
-        <v>150.9382759771985</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="T9" t="n">
-        <v>150.9382759771985</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="U9" t="n">
-        <v>150.9382759771985</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="V9" t="n">
-        <v>150.9382759771985</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="W9" t="n">
-        <v>99.94561517409093</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="X9" t="n">
-        <v>55.03127953871374</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="Y9" t="n">
-        <v>55.03127953871374</v>
+        <v>55.85725136607994</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.03127953871374</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="C10" t="n">
-        <v>55.03127953871374</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="D10" t="n">
-        <v>55.03127953871374</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="E10" t="n">
-        <v>55.03127953871374</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="F10" t="n">
-        <v>55.03127953871374</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="G10" t="n">
-        <v>4.038618735606123</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="H10" t="n">
-        <v>4.038618735606123</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="I10" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J10" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K10" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="L10" t="n">
-        <v>37.46089541307574</v>
+        <v>28.45786185652582</v>
       </c>
       <c r="M10" t="n">
-        <v>83.0891231149967</v>
+        <v>54.78803310695625</v>
       </c>
       <c r="N10" t="n">
-        <v>133.0670299681225</v>
+        <v>81.11820435738667</v>
       </c>
       <c r="O10" t="n">
-        <v>163.2134205911211</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="P10" t="n">
-        <v>165.4881834901262</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.4881834901262</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R10" t="n">
-        <v>165.4881834901262</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="S10" t="n">
-        <v>165.4881834901262</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="T10" t="n">
-        <v>165.4881834901262</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="U10" t="n">
-        <v>165.4881834901262</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="V10" t="n">
-        <v>165.4881834901262</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="W10" t="n">
-        <v>165.4881834901262</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="X10" t="n">
-        <v>114.4955226870186</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.50286188391095</v>
+        <v>55.85725136607994</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1236.203140240072</v>
+        <v>934.6665353554974</v>
       </c>
       <c r="C11" t="n">
-        <v>1236.203140240072</v>
+        <v>934.6665353554974</v>
       </c>
       <c r="D11" t="n">
-        <v>877.9374416333219</v>
+        <v>934.6665353554974</v>
       </c>
       <c r="E11" t="n">
         <v>877.9374416333219</v>
@@ -5041,13 +5041,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362822</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
@@ -5074,19 +5074,19 @@
         <v>2437.640120926625</v>
       </c>
       <c r="U11" t="n">
-        <v>2184.059060190805</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V11" t="n">
-        <v>1852.996172847234</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W11" t="n">
-        <v>1609.668898501152</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X11" t="n">
-        <v>1236.203140240072</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y11" t="n">
-        <v>1236.203140240072</v>
+        <v>1321.266375419619</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G12" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I12" t="n">
         <v>51.2467865680031</v>
@@ -5123,7 +5123,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>590.2049751143496</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L12" t="n">
         <v>884.9085321458213</v>
@@ -5153,7 +5153,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
@@ -5162,7 +5162,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.7930236439497</v>
+        <v>648.2725968131173</v>
       </c>
       <c r="C13" t="n">
-        <v>369.8568407160428</v>
+        <v>479.3364138852104</v>
       </c>
       <c r="D13" t="n">
-        <v>219.7402013037071</v>
+        <v>329.2197744728746</v>
       </c>
       <c r="E13" t="n">
-        <v>198.1367340659135</v>
+        <v>329.2197744728746</v>
       </c>
       <c r="F13" t="n">
-        <v>51.2467865680031</v>
+        <v>182.3298269749643</v>
       </c>
       <c r="G13" t="n">
         <v>51.2467865680031</v>
@@ -5199,7 +5199,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K13" t="n">
         <v>248.4064713020475</v>
@@ -5214,37 +5214,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q13" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U13" t="n">
-        <v>1310.884232784815</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V13" t="n">
-        <v>1056.199744578928</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W13" t="n">
-        <v>766.7825745419671</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X13" t="n">
-        <v>538.7930236439497</v>
+        <v>829.921061643357</v>
       </c>
       <c r="Y13" t="n">
-        <v>538.7930236439497</v>
+        <v>829.921061643357</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1534.696047879951</v>
+        <v>1646.341654153232</v>
       </c>
       <c r="C14" t="n">
-        <v>1165.733530939539</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="D14" t="n">
-        <v>807.4678323327887</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E14" t="n">
-        <v>421.6795797345444</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F14" t="n">
-        <v>421.6795797345444</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G14" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H14" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J14" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M14" t="n">
         <v>1220.470313923562</v>
@@ -5308,22 +5308,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U14" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V14" t="n">
-        <v>1977.695380320764</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W14" t="n">
-        <v>1908.161806141031</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X14" t="n">
-        <v>1534.696047879951</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="Y14" t="n">
-        <v>1534.696047879951</v>
+        <v>1669.762144392295</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G15" t="n">
         <v>165.443278618252</v>
@@ -5354,28 +5354,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L15" t="n">
-        <v>777.6069060507743</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.868925009994</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.15405360694</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O15" t="n">
-        <v>1860.224488783102</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P15" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q15" t="n">
         <v>2538.001278676482</v>
@@ -5390,16 +5390,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>682.9724752679349</v>
+        <v>420.8826835256361</v>
       </c>
       <c r="C16" t="n">
-        <v>514.036292340028</v>
+        <v>420.8826835256361</v>
       </c>
       <c r="D16" t="n">
-        <v>514.036292340028</v>
+        <v>420.8826835256361</v>
       </c>
       <c r="E16" t="n">
-        <v>366.1231987576349</v>
+        <v>272.969589943243</v>
       </c>
       <c r="F16" t="n">
-        <v>219.2332512597245</v>
+        <v>272.969589943243</v>
       </c>
       <c r="G16" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H16" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J16" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
@@ -5469,19 +5469,19 @@
         <v>1413.467639269233</v>
       </c>
       <c r="U16" t="n">
-        <v>1124.349301773071</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V16" t="n">
-        <v>869.6648135671838</v>
+        <v>869.6648135671836</v>
       </c>
       <c r="W16" t="n">
-        <v>869.6648135671838</v>
+        <v>869.6648135671836</v>
       </c>
       <c r="X16" t="n">
-        <v>869.6648135671838</v>
+        <v>641.6752626691663</v>
       </c>
       <c r="Y16" t="n">
-        <v>864.6209400981746</v>
+        <v>420.8826835256361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1194.179752390877</v>
+        <v>1810.593301929726</v>
       </c>
       <c r="C17" t="n">
-        <v>825.2172354504648</v>
+        <v>1441.630784989314</v>
       </c>
       <c r="D17" t="n">
-        <v>466.9515368437143</v>
+        <v>1441.630784989314</v>
       </c>
       <c r="E17" t="n">
-        <v>466.9515368437143</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F17" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G17" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J17" t="n">
         <v>187.5281822362817</v>
@@ -5521,46 +5521,46 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M17" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N17" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O17" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S17" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T17" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U17" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V17" t="n">
-        <v>1977.695380320764</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W17" t="n">
-        <v>1624.92672505065</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X17" t="n">
-        <v>1624.92672505065</v>
+        <v>1810.593301929726</v>
       </c>
       <c r="Y17" t="n">
-        <v>1580.779592454998</v>
+        <v>1810.593301929726</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E18" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J18" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K18" t="n">
-        <v>590.20497511435</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L18" t="n">
-        <v>884.9085321458217</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M18" t="n">
-        <v>1248.170551105042</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N18" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O18" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P18" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q18" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R18" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S18" t="n">
         <v>2426.617474780096</v>
@@ -5633,10 +5633,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y18" t="n">
         <v>1099.519478116707</v>
@@ -5661,16 +5661,16 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J19" t="n">
         <v>76.71595955312199</v>
@@ -5703,22 +5703,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T19" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U19" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V19" t="n">
-        <v>1124.349301773071</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W19" t="n">
-        <v>834.93213173611</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X19" t="n">
-        <v>834.93213173611</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y19" t="n">
-        <v>834.93213173611</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>845.8055914865822</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C20" t="n">
-        <v>476.8430745461705</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="D20" t="n">
-        <v>476.8430745461705</v>
+        <v>768.4960607092905</v>
       </c>
       <c r="E20" t="n">
-        <v>476.8430745461705</v>
+        <v>382.7078081110463</v>
       </c>
       <c r="F20" t="n">
-        <v>476.8430745461705</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G20" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H20" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I20" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M20" t="n">
         <v>1220.470313923562</v>
@@ -5782,22 +5782,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T20" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U20" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V20" t="n">
-        <v>1975.31341879663</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.544763526516</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.544763526516</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y20" t="n">
-        <v>1232.405431550704</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D21" t="n">
         <v>607.9167021542605</v>
@@ -5819,40 +5819,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G21" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I21" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K21" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L21" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M21" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.154053606939</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O21" t="n">
-        <v>1860.224488783101</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P21" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q21" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R21" t="n">
         <v>2562.339328400155</v>
@@ -5870,7 +5870,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X21" t="n">
         <v>1307.279776881661</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>199.1598801503962</v>
+        <v>606.597376495349</v>
       </c>
       <c r="C22" t="n">
-        <v>199.1598801503962</v>
+        <v>437.6611935674421</v>
       </c>
       <c r="D22" t="n">
-        <v>199.1598801503962</v>
+        <v>287.5445541551063</v>
       </c>
       <c r="E22" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F22" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G22" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H22" t="n">
         <v>51.24678656800311</v>
@@ -5910,52 +5910,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K22" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L22" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M22" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N22" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P22" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q22" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S22" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T22" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U22" t="n">
-        <v>1021.765895288652</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V22" t="n">
-        <v>767.0814070827656</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W22" t="n">
-        <v>767.0814070827656</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X22" t="n">
-        <v>539.0918561847483</v>
+        <v>606.597376495349</v>
       </c>
       <c r="Y22" t="n">
-        <v>380.8083449806359</v>
+        <v>606.597376495349</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1505.042027525391</v>
+        <v>1605.165657180484</v>
       </c>
       <c r="C23" t="n">
-        <v>1505.042027525391</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D23" t="n">
-        <v>1146.77632891864</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E23" t="n">
-        <v>760.988076320396</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F23" t="n">
-        <v>350.0021715307884</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G23" t="n">
         <v>51.24678656800311</v>
@@ -5989,16 +5989,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N23" t="n">
         <v>1656.671415230817</v>
@@ -6007,7 +6007,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q23" t="n">
         <v>2542.25058172385</v>
@@ -6019,22 +6019,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U23" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V23" t="n">
-        <v>2231.276441056585</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W23" t="n">
-        <v>1878.507785786471</v>
+        <v>1605.165657180484</v>
       </c>
       <c r="X23" t="n">
-        <v>1505.042027525391</v>
+        <v>1605.165657180484</v>
       </c>
       <c r="Y23" t="n">
-        <v>1505.042027525391</v>
+        <v>1605.165657180484</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D24" t="n">
         <v>607.9167021542605</v>
@@ -6059,34 +6059,34 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G24" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057905</v>
       </c>
       <c r="I24" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K24" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L24" t="n">
-        <v>979.6730931919905</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M24" t="n">
-        <v>1342.93511215121</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N24" t="n">
-        <v>1730.220240748155</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O24" t="n">
-        <v>2062.290675924317</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P24" t="n">
-        <v>2309.473409756614</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400155</v>
@@ -6107,7 +6107,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W24" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X24" t="n">
         <v>1307.279776881661</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>514.9860105762135</v>
+        <v>131.4655134886754</v>
       </c>
       <c r="C25" t="n">
-        <v>346.0498276483066</v>
+        <v>131.4655134886754</v>
       </c>
       <c r="D25" t="n">
-        <v>346.0498276483066</v>
+        <v>131.4655134886754</v>
       </c>
       <c r="E25" t="n">
-        <v>198.1367340659135</v>
+        <v>131.4655134886754</v>
       </c>
       <c r="F25" t="n">
         <v>51.24678656800311</v>
@@ -6171,28 +6171,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S25" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T25" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U25" t="n">
-        <v>1021.765895288652</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V25" t="n">
-        <v>767.0814070827656</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W25" t="n">
-        <v>514.9860105762135</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X25" t="n">
-        <v>514.9860105762135</v>
+        <v>352.2580926322055</v>
       </c>
       <c r="Y25" t="n">
-        <v>514.9860105762135</v>
+        <v>131.4655134886754</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1367.208738248818</v>
+        <v>1605.165657180484</v>
       </c>
       <c r="C26" t="n">
-        <v>1367.208738248818</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D26" t="n">
-        <v>1367.208738248818</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E26" t="n">
-        <v>981.4204856505742</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F26" t="n">
-        <v>570.4345808609667</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G26" t="n">
-        <v>154.7298305852555</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I26" t="n">
         <v>51.2467865680031</v>
@@ -6229,10 +6229,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L26" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
@@ -6256,22 +6256,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T26" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U26" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V26" t="n">
-        <v>2106.577233583054</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W26" t="n">
-        <v>1753.80857831294</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X26" t="n">
-        <v>1753.80857831294</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y26" t="n">
-        <v>1753.80857831294</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E27" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H27" t="n">
         <v>71.67401812057901</v>
@@ -6305,25 +6305,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J27" t="n">
-        <v>238.4273302370161</v>
+        <v>119.9870984135519</v>
       </c>
       <c r="K27" t="n">
-        <v>614.5430248380227</v>
+        <v>304.7087196946019</v>
       </c>
       <c r="L27" t="n">
-        <v>909.2465818694943</v>
+        <v>599.4122767260735</v>
       </c>
       <c r="M27" t="n">
-        <v>1272.508600828714</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O27" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P27" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q27" t="n">
         <v>2562.339328400155</v>
@@ -6338,7 +6338,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V27" t="n">
         <v>1769.368633815395</v>
@@ -6347,7 +6347,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.6293447920665</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C28" t="n">
         <v>51.2467865680031</v>
@@ -6411,25 +6411,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U28" t="n">
-        <v>927.7205539329314</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V28" t="n">
-        <v>673.0360657270445</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W28" t="n">
-        <v>383.6188956900839</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X28" t="n">
-        <v>155.6293447920665</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.6293447920665</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1206.346846950667</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="C29" t="n">
-        <v>837.3843300102556</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="D29" t="n">
-        <v>837.3843300102556</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E29" t="n">
-        <v>837.3843300102556</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F29" t="n">
-        <v>837.3843300102556</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G29" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J29" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U29" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V29" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W29" t="n">
-        <v>1592.946687014789</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X29" t="n">
-        <v>1592.946687014789</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y29" t="n">
-        <v>1592.946687014789</v>
+        <v>1587.556048344952</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J30" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K30" t="n">
-        <v>575.62568451442</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L30" t="n">
-        <v>870.3292415458916</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M30" t="n">
-        <v>1233.591260505112</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N30" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O30" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P30" t="n">
         <v>2447.023413292609</v>
@@ -6609,19 +6609,19 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020475</v>
@@ -6651,22 +6651,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T31" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U31" t="n">
-        <v>1381.281550138316</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V31" t="n">
-        <v>1126.597061932429</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W31" t="n">
-        <v>1126.597061932429</v>
+        <v>724.1560179586596</v>
       </c>
       <c r="X31" t="n">
-        <v>898.6075110344121</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="Y31" t="n">
-        <v>677.814931890882</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1246.899958573734</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C32" t="n">
-        <v>877.9374416333218</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D32" t="n">
-        <v>877.9374416333218</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E32" t="n">
-        <v>877.9374416333218</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F32" t="n">
-        <v>466.9515368437142</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816079</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L32" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R32" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T32" t="n">
-        <v>2437.640120926624</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U32" t="n">
-        <v>2184.059060190804</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V32" t="n">
-        <v>2023.639130613667</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W32" t="n">
-        <v>2023.639130613667</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X32" t="n">
-        <v>2023.639130613667</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y32" t="n">
-        <v>1633.499798637855</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E33" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G33" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0008189145199</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
         <v>614.5430248380227</v>
@@ -6812,7 +6812,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V33" t="n">
         <v>1769.368633815395</v>
@@ -6821,7 +6821,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>528.3525561915583</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C34" t="n">
-        <v>359.4163732636514</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D34" t="n">
-        <v>359.4163732636514</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E34" t="n">
-        <v>211.5032796812583</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F34" t="n">
-        <v>64.61333218334792</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H34" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K34" t="n">
         <v>248.4064713020475</v>
@@ -6885,25 +6885,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T34" t="n">
-        <v>1413.467639269232</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U34" t="n">
-        <v>1413.467639269232</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V34" t="n">
-        <v>1158.783151063345</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W34" t="n">
-        <v>1158.783151063345</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X34" t="n">
-        <v>930.7936001653281</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y34" t="n">
-        <v>710.001021021798</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1221.70230638237</v>
+        <v>1194.179752390877</v>
       </c>
       <c r="C35" t="n">
-        <v>852.7397894419585</v>
+        <v>825.2172354504648</v>
       </c>
       <c r="D35" t="n">
-        <v>852.7397894419585</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E35" t="n">
         <v>466.9515368437143</v>
@@ -6928,22 +6928,22 @@
         <v>466.9515368437143</v>
       </c>
       <c r="G35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K35" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U35" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V35" t="n">
-        <v>1975.313418796629</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W35" t="n">
-        <v>1975.313418796629</v>
+        <v>1580.779592454998</v>
       </c>
       <c r="X35" t="n">
-        <v>1975.313418796629</v>
+        <v>1580.779592454998</v>
       </c>
       <c r="Y35" t="n">
-        <v>1608.302146446492</v>
+        <v>1580.779592454998</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I36" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L36" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M36" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.293511287796</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O36" t="n">
-        <v>2047.363946463958</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.546680296255</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q36" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7049,7 +7049,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
         <v>1769.368633815395</v>
@@ -7058,7 +7058,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.519478116707</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.1026499885492</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="C37" t="n">
-        <v>496.1664670606423</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D37" t="n">
-        <v>346.0498276483066</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E37" t="n">
-        <v>198.1367340659135</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F37" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020475</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T37" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U37" t="n">
-        <v>1347.327782578335</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V37" t="n">
-        <v>1347.327782578335</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W37" t="n">
-        <v>1057.910612541374</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X37" t="n">
-        <v>1057.910612541374</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="Y37" t="n">
-        <v>846.7511148187889</v>
+        <v>672.7372331862462</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1254.111199477246</v>
+        <v>1254.111199477247</v>
       </c>
       <c r="C38" t="n">
-        <v>1254.111199477246</v>
+        <v>1254.111199477247</v>
       </c>
       <c r="D38" t="n">
-        <v>1254.111199477246</v>
+        <v>1254.111199477247</v>
       </c>
       <c r="E38" t="n">
-        <v>944.3110907974333</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F38" t="n">
-        <v>533.3251860078258</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G38" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H38" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P38" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R38" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2228.894479532449</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U38" t="n">
-        <v>1975.313418796628</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V38" t="n">
-        <v>1644.250531453058</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W38" t="n">
-        <v>1644.250531453058</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X38" t="n">
-        <v>1644.250531453058</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y38" t="n">
-        <v>1254.111199477246</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G39" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K39" t="n">
-        <v>298.3188265310612</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L39" t="n">
-        <v>801.9449557744472</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M39" t="n">
-        <v>1165.206974733667</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N39" t="n">
         <v>1552.492103330613</v>
       </c>
       <c r="O39" t="n">
-        <v>1884.562538506774</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P39" t="n">
         <v>2447.023413292609</v>
@@ -7286,16 +7286,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.24678656800308</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C40" t="n">
-        <v>51.24678656800308</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D40" t="n">
-        <v>51.24678656800308</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E40" t="n">
-        <v>51.24678656800308</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F40" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G40" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H40" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020475</v>
@@ -7359,25 +7359,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T40" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U40" t="n">
-        <v>1044.130574852398</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V40" t="n">
-        <v>789.4460866465112</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W40" t="n">
-        <v>500.0289166095505</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X40" t="n">
-        <v>272.0393657115332</v>
+        <v>864.6537434744305</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.24678656800308</v>
+        <v>643.8611643309004</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.179752390877</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="C41" t="n">
-        <v>825.2172354504647</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D41" t="n">
-        <v>466.9515368437142</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E41" t="n">
-        <v>466.9515368437142</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="F41" t="n">
         <v>466.9515368437142</v>
@@ -7411,13 +7411,13 @@
         <v>51.24678656800308</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923561</v>
@@ -7426,10 +7426,10 @@
         <v>1656.671415230816</v>
       </c>
       <c r="O41" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q41" t="n">
         <v>2542.250581723849</v>
@@ -7441,22 +7441,22 @@
         <v>2437.640120926624</v>
       </c>
       <c r="T41" t="n">
-        <v>2437.640120926624</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U41" t="n">
-        <v>2184.059060190804</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="V41" t="n">
-        <v>2184.059060190804</v>
+        <v>1644.250531453058</v>
       </c>
       <c r="W41" t="n">
-        <v>1831.29040492069</v>
+        <v>1644.250531453058</v>
       </c>
       <c r="X41" t="n">
-        <v>1457.82464665961</v>
+        <v>1644.250531453058</v>
       </c>
       <c r="Y41" t="n">
-        <v>1457.82464665961</v>
+        <v>1644.250531453058</v>
       </c>
     </row>
     <row r="42">
@@ -7493,10 +7493,10 @@
         <v>238.427330237016</v>
       </c>
       <c r="K42" t="n">
-        <v>614.5430248380239</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L42" t="n">
-        <v>909.2465818694955</v>
+        <v>909.246581869495</v>
       </c>
       <c r="M42" t="n">
         <v>1272.508600828715</v>
@@ -7505,7 +7505,7 @@
         <v>1659.79372942566</v>
       </c>
       <c r="O42" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P42" t="n">
         <v>2239.046898434118</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>517.2629842544534</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C43" t="n">
-        <v>517.2629842544534</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D43" t="n">
-        <v>367.1463448421176</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E43" t="n">
-        <v>219.2332512597245</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F43" t="n">
         <v>219.2332512597245</v>
@@ -7569,7 +7569,7 @@
         <v>51.24678656800308</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312192</v>
       </c>
       <c r="K43" t="n">
         <v>248.4064713020474</v>
@@ -7593,28 +7593,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.811916622403</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>1436.811916622403</v>
+        <v>1558.839237753358</v>
       </c>
       <c r="U43" t="n">
-        <v>1147.693579126241</v>
+        <v>1558.839237753358</v>
       </c>
       <c r="V43" t="n">
-        <v>1147.693579126241</v>
+        <v>1304.154749547471</v>
       </c>
       <c r="W43" t="n">
-        <v>1147.693579126241</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="X43" t="n">
-        <v>919.7040282282233</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y43" t="n">
-        <v>698.9114490846931</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1575.249159503017</v>
+        <v>1532.019095624401</v>
       </c>
       <c r="C44" t="n">
-        <v>1206.286642562605</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D44" t="n">
-        <v>848.0209439558548</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E44" t="n">
-        <v>462.2326913576106</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F44" t="n">
-        <v>51.24678656800308</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G44" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362815</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816072</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872902</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.47031392356</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O44" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P44" t="n">
         <v>2360.886721764996</v>
@@ -7681,19 +7681,19 @@
         <v>2562.339328400154</v>
       </c>
       <c r="U44" t="n">
-        <v>2562.339328400154</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="V44" t="n">
-        <v>2562.339328400154</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="W44" t="n">
-        <v>2209.57067313004</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="X44" t="n">
-        <v>1965.388491478829</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="Y44" t="n">
-        <v>1575.249159503017</v>
+        <v>1918.618935688522</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J45" t="n">
         <v>238.427330237016</v>
       </c>
       <c r="K45" t="n">
-        <v>614.5430248380239</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2465818694955</v>
+        <v>909.246581869495</v>
       </c>
       <c r="M45" t="n">
         <v>1272.508600828715</v>
@@ -7742,7 +7742,7 @@
         <v>1659.79372942566</v>
       </c>
       <c r="O45" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P45" t="n">
         <v>2239.046898434118</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>688.0163487369434</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C46" t="n">
-        <v>519.0801658090365</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D46" t="n">
-        <v>368.9635263967008</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E46" t="n">
-        <v>221.0504328143077</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F46" t="n">
-        <v>74.16048531639731</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G46" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H46" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312192</v>
       </c>
       <c r="K46" t="n">
         <v>248.4064713020474</v>
@@ -7839,19 +7839,19 @@
         <v>1413.467639269232</v>
       </c>
       <c r="U46" t="n">
-        <v>1124.34930177307</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V46" t="n">
-        <v>869.6648135671832</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W46" t="n">
-        <v>869.6648135671832</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X46" t="n">
-        <v>869.6648135671832</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y46" t="n">
-        <v>869.6648135671832</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L2" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>180.5807728421703</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>254.4105736425649</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>267.2557976262617</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M5" t="n">
-        <v>260.1903324891504</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N5" t="n">
-        <v>257.1321148353753</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>214.5102874732696</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P5" t="n">
-        <v>217.9290633046618</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>170.1450098635977</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L6" t="n">
-        <v>173.8955976338213</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M6" t="n">
-        <v>175.6808592485474</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>164.5565802199746</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>124.5219861368073</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.663080786811</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N7" t="n">
-        <v>167.4241015402145</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>256.7644825146879</v>
+        <v>244.8072735226552</v>
       </c>
       <c r="L8" t="n">
-        <v>271.649412930509</v>
+        <v>233.4357089658653</v>
       </c>
       <c r="M8" t="n">
-        <v>214.1012135983212</v>
+        <v>254.3490062949102</v>
       </c>
       <c r="N8" t="n">
-        <v>263.3879167614743</v>
+        <v>253.3738733961061</v>
       </c>
       <c r="O8" t="n">
-        <v>264.993021668346</v>
+        <v>253.131292213619</v>
       </c>
       <c r="P8" t="n">
-        <v>217.9290633046618</v>
+        <v>229.1091522321465</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>163.1615280586598</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429921</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M9" t="n">
-        <v>180.0744745527947</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>154.8080044282281</v>
       </c>
       <c r="O9" t="n">
-        <v>181.3015543884808</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P9" t="n">
-        <v>172.9650138997595</v>
+        <v>159.0615527957492</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1458149818875</v>
+        <v>165.5691886844316</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,13 +8616,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>160.4958522384784</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>164.4834178702207</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>153.2678715646723</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>168.7434581780643</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L15" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>168.7434581780645</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>240.4465442417444</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>186.4490126143852</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>265.0304328515148</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>20.93778120154991</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>6.454437538929909</v>
       </c>
       <c r="K27" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>20.93778120154991</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>154.0169020165192</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>54.95314511566528</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>129.4330134067488</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L39" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.3273467878365</v>
+        <v>193.327346787836</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154994</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3273467878365</v>
+        <v>193.327346787836</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154994</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347.8683628354914</v>
+        <v>360.1674891792497</v>
       </c>
       <c r="C2" t="n">
-        <v>325.689014809167</v>
+        <v>339.6526005763767</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22600,10 +22600,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,22 +22676,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>136.8176922758487</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V3" t="n">
-        <v>193.2167101875847</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W3" t="n">
-        <v>212.111106199079</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>183.9532240455045</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22752,28 +22752,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W4" t="n">
-        <v>246.9391213747504</v>
+        <v>263.9566458523602</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.6071009908305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>206.909162189371</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644702</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>176.6017413960703</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>205.2491327281029</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V5" t="n">
-        <v>287.1569625510925</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>340.1488197652243</v>
+        <v>373.6622853863676</v>
       </c>
     </row>
     <row r="6">
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>101.3559466738095</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E6" t="n">
-        <v>117.0497845363585</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>98.98009350255464</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.99534313620833</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>183.2066327192466</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="7">
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>149.9852910238335</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22953,22 +22953,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>122.8546955387004</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9494798159088</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H7" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908973</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>240.2276468542498</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>206.0485244329988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>240.4338794457618</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>356.3933115466349</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>370.745029124808</v>
+        <v>400.2578758222747</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852174</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>93.57486856939363</v>
+        <v>122.3452334454895</v>
       </c>
       <c r="S8" t="n">
-        <v>156.4291245048363</v>
+        <v>182.0873816304359</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>196.435064385667</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23111,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>118.4730798171915</v>
       </c>
       <c r="G9" t="n">
-        <v>86.81128248461911</v>
+        <v>110.7394823158894</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S9" t="n">
-        <v>120.2809871382089</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>173.5367444205265</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>201.2122489658431</v>
+        <v>228.2691095878094</v>
       </c>
       <c r="X9" t="n">
-        <v>161.307792924454</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.4451136601921</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23190,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>118.8249154467389</v>
       </c>
       <c r="G10" t="n">
-        <v>117.4667456208323</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>128.6551105731832</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>204.4914090427152</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>259.7225354167352</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23244,10 +23244,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>175.2269211939606</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>168.1019191570182</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>325.768567287308</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.346967114792</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>125.0465300811535</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>36.53439004191264</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I13" t="n">
         <v>104.7965952039006</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>359.5475563268087</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>280.4027302794767</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>94.05253385844551</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>104.7965952039006</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.5912186177757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>124.8925127122347</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>65.70991267247049</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>206.6581849802338</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.5322773863581</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.70079325185205</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>201.1568951983996</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>78.72963441409871</v>
       </c>
       <c r="G20" t="n">
-        <v>356.9358429094441</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.75068189046586</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>104.7965952039006</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>61.88397726002356</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>115.7798716597966</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>301.0185525624054</v>
@@ -24259,19 +24259,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>187.0947277887692</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>66.00450837146569</v>
       </c>
       <c r="G25" t="n">
         <v>166.3066000448042</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
         <v>194.6624603617375</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>36.94855579510443</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>344.0398161336318</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>264.280251657796</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>63.90808845680503</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,7 +24651,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>100.4154405304717</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>363.1603436536337</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>298.4501627235256</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24891,22 +24891,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>33.61422988438176</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>142.4692906841525</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>168.9365281887694</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>9.5183498067762</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>153.0737198856128</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551289</v>
@@ -25125,22 +25125,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>115.245920710272</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>79.7465541290992</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>22.89677902941753</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>13.32731465615299</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551289</v>
@@ -25362,16 +25362,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.536750606735438</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>75.22826247924729</v>
+        <v>310.5369023691809</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>54.42708833644043</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.3066000448042</v>
@@ -25599,19 +25599,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>115.245920710272</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>121.7253963374345</v>
+        <v>371.2871445852114</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S43" t="n">
-        <v>98.58217136373806</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>143.9178824992844</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>165.3723370645719</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>127.9907408437701</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>143.6220382838939</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
         <v>147.2515091551289</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>169.7679478717838</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>361278.1889239306</v>
+        <v>350094.0069975298</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>369032.087473025</v>
+        <v>350094.0069975298</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>372370.851284233</v>
+        <v>351322.4461888482</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>820457.9145308731</v>
+        <v>820457.9145308732</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>820457.9145308731</v>
+        <v>820457.9145308732</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>820457.9145308731</v>
+        <v>820457.9145308732</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>820457.9145308731</v>
+        <v>820457.9145308732</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>820457.9145308732</v>
+        <v>820457.9145308731</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>820457.9145308732</v>
+        <v>820457.9145308731</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>820457.9145308731</v>
+        <v>820457.9145308732</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>820457.9145308728</v>
+        <v>820457.9145308731</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>820457.9145308732</v>
+        <v>820457.9145308728</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100659.3795094922</v>
+        <v>97550.75407925651</v>
       </c>
       <c r="C2" t="n">
-        <v>103599.8082881533</v>
+        <v>97550.75407925648</v>
       </c>
       <c r="D2" t="n">
-        <v>104527.8123350628</v>
+        <v>98017.59349523795</v>
       </c>
       <c r="E2" t="n">
+        <v>260075.8859201621</v>
+      </c>
+      <c r="F2" t="n">
         <v>260075.8859201622</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>260075.8859201623</v>
       </c>
-      <c r="G2" t="n">
-        <v>260075.8859201621</v>
-      </c>
       <c r="H2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="I2" t="n">
         <v>260075.8859201622</v>
@@ -26343,10 +26343,10 @@
         <v>260075.8859201622</v>
       </c>
       <c r="L2" t="n">
+        <v>260075.8859201622</v>
+      </c>
+      <c r="M2" t="n">
         <v>260075.8859201621</v>
-      </c>
-      <c r="M2" t="n">
-        <v>260075.8859201622</v>
       </c>
       <c r="N2" t="n">
         <v>260075.8859201622</v>
@@ -26355,7 +26355,7 @@
         <v>260075.8859201622</v>
       </c>
       <c r="P2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201622</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>8585.948846018267</v>
       </c>
       <c r="C3" t="n">
-        <v>23057.68527395006</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1364.788721958336</v>
+        <v>3449.473224207683</v>
       </c>
       <c r="E3" t="n">
-        <v>908133.0200194606</v>
+        <v>930802.4619783189</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380379</v>
+        <v>6703.39546932795</v>
       </c>
       <c r="K3" t="n">
-        <v>1674.241104779983</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1111.984490967165</v>
+        <v>246.9766711007865</v>
       </c>
       <c r="M3" t="n">
-        <v>147055.8032063083</v>
+        <v>153008.4398761406</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47491.18151496474</v>
+        <v>45987.40213064622</v>
       </c>
       <c r="C4" t="n">
-        <v>46083.55904677122</v>
+        <v>45987.40213064622</v>
       </c>
       <c r="D4" t="n">
-        <v>46532.47558098388</v>
+        <v>45761.2469921198</v>
       </c>
       <c r="E4" t="n">
-        <v>10154.90898475463</v>
+        <v>10154.90898475462</v>
       </c>
       <c r="F4" t="n">
-        <v>10154.90898475463</v>
+        <v>10154.90898475462</v>
       </c>
       <c r="G4" t="n">
         <v>10154.90898475463</v>
@@ -26438,7 +26438,7 @@
         <v>10154.90898475463</v>
       </c>
       <c r="I4" t="n">
-        <v>10154.90898475463</v>
+        <v>10154.90898475464</v>
       </c>
       <c r="J4" t="n">
         <v>10154.90898475463</v>
@@ -26456,10 +26456,10 @@
         <v>10154.90898475463</v>
       </c>
       <c r="O4" t="n">
-        <v>10154.90898475464</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="P4" t="n">
-        <v>10154.90898475464</v>
+        <v>10154.90898475463</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="C5" t="n">
-        <v>36931.51017113443</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="D5" t="n">
-        <v>37198.64198163266</v>
+        <v>35324.73507170517</v>
       </c>
       <c r="E5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="H5" t="n">
         <v>59310.17243984471</v>
@@ -26499,19 +26499,19 @@
         <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="M5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="O5" t="n">
         <v>59310.17243984468</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984468</v>
+        <v>59310.1724398447</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10736.47359929583</v>
+        <v>6313.312938469861</v>
       </c>
       <c r="C6" t="n">
-        <v>-16904.88408041816</v>
+        <v>14899.26178448809</v>
       </c>
       <c r="D6" t="n">
-        <v>5054.55664711988</v>
+        <v>12006.10786192833</v>
       </c>
       <c r="E6" t="n">
-        <v>-722749.6782457894</v>
+        <v>-740714.4037549453</v>
       </c>
       <c r="F6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233737</v>
       </c>
       <c r="G6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233737</v>
       </c>
       <c r="H6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233738</v>
       </c>
       <c r="I6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233737</v>
       </c>
       <c r="J6" t="n">
-        <v>175026.4578698674</v>
+        <v>183384.6627540457</v>
       </c>
       <c r="K6" t="n">
-        <v>183709.1006688913</v>
+        <v>190088.0582233737</v>
       </c>
       <c r="L6" t="n">
-        <v>184271.357282704</v>
+        <v>189841.0815522729</v>
       </c>
       <c r="M6" t="n">
-        <v>38327.53856736295</v>
+        <v>37079.61834723299</v>
       </c>
       <c r="N6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233737</v>
       </c>
       <c r="O6" t="n">
-        <v>185383.3417736714</v>
+        <v>190088.0582233737</v>
       </c>
       <c r="P6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233737</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="G3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175391</v>
@@ -26776,10 +26776,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="O3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175389</v>
       </c>
     </row>
     <row r="4">
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D4" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="E4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="H4" t="n">
         <v>640.5848321000389</v>
@@ -26816,22 +26816,22 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="L4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="M4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="L4" t="n">
-        <v>640.5848321000385</v>
-      </c>
-      <c r="M4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="N4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
         <v>640.5848321000385</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000386</v>
       </c>
     </row>
   </sheetData>
@@ -26962,16 +26962,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="E3" t="n">
-        <v>911.0515094307498</v>
+        <v>930.3910292242969</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
-        <v>6.50524192898866</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.393615304247291</v>
+        <v>0.9758413815615192</v>
       </c>
       <c r="E4" t="n">
-        <v>590.1020979049622</v>
+        <v>613.9886995238464</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184047</v>
+        <v>25.62029119463068</v>
       </c>
       <c r="K4" t="n">
-        <v>6.505241928988774</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.39361530424695</v>
+        <v>0.9758413815615192</v>
       </c>
       <c r="M4" t="n">
-        <v>590.1020979049624</v>
+        <v>613.9886995238465</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K4" t="n">
-        <v>6.50524192898866</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.393615304247291</v>
+        <v>0.9758413815615192</v>
       </c>
       <c r="M4" t="n">
-        <v>590.1020979049622</v>
+        <v>613.9886995238464</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760343</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324493</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679517</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S8" t="n">
-        <v>2.10821088633251</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246498</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522959</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847948</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I11" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T11" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U11" t="n">
         <v>0.3004027793744847</v>
@@ -31834,10 +31834,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31846,7 +31846,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M12" t="n">
         <v>509.0653662040588</v>
@@ -31855,25 +31855,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P12" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R12" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31931,10 +31931,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31946,13 +31946,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
         <v>38.45624955336179</v>
@@ -32004,16 +32004,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N14" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P14" t="n">
         <v>539.9786897190645</v>
@@ -32025,7 +32025,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T14" t="n">
         <v>16.4376645838976</v>
@@ -32074,7 +32074,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
@@ -32086,16 +32086,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
         <v>256.4624964168761</v>
@@ -32153,7 +32153,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
@@ -32180,7 +32180,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
         <v>29.35413767523479</v>
@@ -32189,7 +32189,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32466,43 +32466,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H20" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I20" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J20" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L20" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O20" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q20" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R20" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S20" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T20" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U20" t="n">
         <v>0.3004027793744847</v>
@@ -32545,10 +32545,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H21" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I21" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J21" t="n">
         <v>189.8178475575841</v>
@@ -32557,7 +32557,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M21" t="n">
         <v>509.0653662040588</v>
@@ -32566,25 +32566,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P21" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R21" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J22" t="n">
         <v>119.0856174753787</v>
@@ -32642,10 +32642,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N22" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O22" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P22" t="n">
         <v>203.7180217169137</v>
@@ -32657,13 +32657,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S22" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34125,13 +34125,13 @@
         <v>3.755034742181058</v>
       </c>
       <c r="H41" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I41" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J41" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K41" t="n">
         <v>477.6545005857141</v>
@@ -34140,25 +34140,25 @@
         <v>592.5726450767378</v>
       </c>
       <c r="M41" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N41" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P41" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q41" t="n">
-        <v>405.5015080147049</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R41" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S41" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T41" t="n">
         <v>16.43766458389759</v>
@@ -34216,19 +34216,19 @@
         <v>324.4289352178437</v>
       </c>
       <c r="L42" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M42" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N42" t="n">
-        <v>522.5388116762069</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O42" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P42" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q42" t="n">
         <v>256.462496416876</v>
@@ -34237,7 +34237,7 @@
         <v>124.741722762414</v>
       </c>
       <c r="S42" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T42" t="n">
         <v>8.098166376000169</v>
@@ -34286,16 +34286,16 @@
         <v>14.97566335231071</v>
       </c>
       <c r="I43" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J43" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K43" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L43" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M43" t="n">
         <v>264.0341136849626</v>
@@ -34304,7 +34304,7 @@
         <v>257.7559726067958</v>
       </c>
       <c r="O43" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P43" t="n">
         <v>203.7180217169136</v>
@@ -34319,10 +34319,10 @@
         <v>29.35413767523477</v>
       </c>
       <c r="T43" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,13 +34362,13 @@
         <v>3.755034742181058</v>
       </c>
       <c r="H44" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I44" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J44" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K44" t="n">
         <v>477.6545005857141</v>
@@ -34377,25 +34377,25 @@
         <v>592.5726450767378</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P44" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147049</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R44" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T44" t="n">
         <v>16.43766458389759</v>
@@ -34453,19 +34453,19 @@
         <v>324.4289352178437</v>
       </c>
       <c r="L45" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762069</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O45" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q45" t="n">
         <v>256.462496416876</v>
@@ -34474,7 +34474,7 @@
         <v>124.741722762414</v>
       </c>
       <c r="S45" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T45" t="n">
         <v>8.098166376000169</v>
@@ -34523,16 +34523,16 @@
         <v>14.97566335231071</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J46" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K46" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L46" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M46" t="n">
         <v>264.0341136849626</v>
@@ -34541,7 +34541,7 @@
         <v>257.7559726067958</v>
       </c>
       <c r="O46" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P46" t="n">
         <v>203.7180217169136</v>
@@ -34556,10 +34556,10 @@
         <v>29.35413767523477</v>
       </c>
       <c r="T46" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L2" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37.98452839772582</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>46.08911889082925</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M5" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N5" t="n">
-        <v>44.22693226897754</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.2968134399889</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L6" t="n">
-        <v>46.08911889082925</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M6" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178749</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N7" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O7" t="n">
-        <v>30.4508996191905</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.44302776295223</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="L8" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="N8" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O8" t="n">
-        <v>50.48273419507654</v>
+        <v>25.52154136099267</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>25.52154136099266</v>
       </c>
       <c r="O9" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>48.44302776295223</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178749</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082925</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O10" t="n">
-        <v>30.4508996191905</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K12" t="n">
-        <v>355.3309544215491</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N12" t="n">
         <v>391.1970995928739</v>
@@ -35506,13 +35506,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R12" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K13" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L13" t="n">
         <v>278.0112915831069</v>
@@ -35579,7 +35579,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O13" t="n">
         <v>262.6644876295069</v>
@@ -35588,7 +35588,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N14" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P14" t="n">
         <v>308.745693963795</v>
@@ -35670,7 +35670,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L15" t="n">
-        <v>484.1293732522353</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N15" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R15" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K16" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
         <v>303.6179906468033</v>
@@ -35819,13 +35819,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>257.5646495407337</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067513</v>
       </c>
       <c r="M17" t="n">
         <v>429.0050109457277</v>
@@ -35907,7 +35907,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K18" t="n">
-        <v>355.3309544215493</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378502</v>
+        <v>538.1269048795946</v>
       </c>
       <c r="M18" t="n">
         <v>366.9313322820405</v>
@@ -35983,7 +35983,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R18" t="n">
         <v>24.58388860977092</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K20" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N20" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O20" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P20" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L21" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N21" t="n">
-        <v>577.6461122072591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O21" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R21" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K22" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L22" t="n">
         <v>278.0112915831069</v>
@@ -36290,7 +36290,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N22" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O22" t="n">
         <v>262.6644876295069</v>
@@ -36299,7 +36299,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>308.7456939637948</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402565</v>
       </c>
       <c r="R23" t="n">
         <v>20.29166330939901</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K24" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378501</v>
+        <v>562.710793489365</v>
       </c>
       <c r="M24" t="n">
         <v>366.9313322820404</v>
@@ -36457,7 +36457,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q24" t="n">
-        <v>255.4201198419607</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>189.0712562313262</v>
+        <v>69.4346584298473</v>
       </c>
       <c r="K27" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M27" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N27" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O27" t="n">
         <v>335.424681996123</v>
@@ -36694,7 +36694,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q27" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K30" t="n">
-        <v>340.604398260004</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378501</v>
@@ -36922,13 +36922,13 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N30" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O30" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P30" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q30" t="n">
         <v>116.4807223308545</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>117.9333660065827</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K33" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378501</v>
@@ -37387,7 +37387,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378501</v>
@@ -37396,7 +37396,7 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N36" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O36" t="n">
         <v>335.424681996123</v>
@@ -37405,10 +37405,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q36" t="n">
-        <v>245.9137357376033</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R36" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K39" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L39" t="n">
-        <v>508.713261862006</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M39" t="n">
         <v>366.9313322820404</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L41" t="n">
         <v>356.8062301067505</v>
       </c>
       <c r="M41" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N41" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P41" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q41" t="n">
         <v>183.1958181402555</v>
       </c>
       <c r="R41" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K42" t="n">
-        <v>379.9148430313211</v>
+        <v>379.9148430313207</v>
       </c>
       <c r="L42" t="n">
         <v>297.68036063785</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820403</v>
       </c>
       <c r="N42" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O42" t="n">
         <v>335.4246819961228</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K43" t="n">
         <v>173.424759342349</v>
@@ -37952,7 +37952,7 @@
         <v>301.8881449860244</v>
       </c>
       <c r="O43" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P43" t="n">
         <v>200.9965809818071</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L44" t="n">
         <v>356.8062301067505</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P44" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q44" t="n">
         <v>183.1958181402555</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K45" t="n">
-        <v>379.9148430313211</v>
+        <v>379.9148430313207</v>
       </c>
       <c r="L45" t="n">
         <v>297.68036063785</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820403</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O45" t="n">
         <v>335.4246819961228</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K46" t="n">
         <v>173.424759342349</v>
@@ -38189,7 +38189,7 @@
         <v>301.8881449860244</v>
       </c>
       <c r="O46" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P46" t="n">
         <v>200.9965809818071</v>
